--- a/case_studies/DME/DME EHS3_1conOct.xlsx
+++ b/case_studies/DME/DME EHS3_1conOct.xlsx
@@ -1,49 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="19875" windowHeight="10275" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="IntVal" sheetId="1" r:id="rId1"/>
-    <sheet name="edp" sheetId="2" r:id="rId2"/>
-    <sheet name="mdp" sheetId="3" r:id="rId3"/>
-    <sheet name="cdp" sheetId="4" r:id="rId4"/>
-    <sheet name="udp" sheetId="5" r:id="rId5"/>
-    <sheet name="idp" sheetId="6" r:id="rId6"/>
-    <sheet name="Stream Table" sheetId="7" r:id="rId7"/>
-    <sheet name="Unit Table" sheetId="8" r:id="rId8"/>
-    <sheet name="Appendix" sheetId="9" r:id="rId9"/>
+    <sheet name="IntVal" sheetId="4" r:id="rId1"/>
+    <sheet name="edp" sheetId="6" r:id="rId2"/>
+    <sheet name="mdp" sheetId="8" r:id="rId3"/>
+    <sheet name="cdp" sheetId="10" r:id="rId4"/>
+    <sheet name="udp" sheetId="12" r:id="rId5"/>
+    <sheet name="idp" sheetId="14" r:id="rId6"/>
+    <sheet name="Stream" sheetId="16" r:id="rId7"/>
+    <sheet name="Unit" sheetId="18" r:id="rId8"/>
+    <sheet name="Appendix" sheetId="20" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"IntVal"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"edp"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"mdp"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"cdp"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"udp"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"idp"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Stream Table"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Unit Table"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="8">"Appendix"</definedName>
-  </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="162">
   <si>
     <t>Unit 1</t>
   </si>
@@ -126,6 +105,9 @@
     <t>Justification</t>
   </si>
   <si>
+    <t>Descriptor vals</t>
+  </si>
+  <si>
     <t>Gas Dispersion</t>
   </si>
   <si>
@@ -141,6 +123,9 @@
     <t>TLC-C</t>
   </si>
   <si>
+    <t>Vaporizing liquid</t>
+  </si>
+  <si>
     <t>dTad</t>
   </si>
   <si>
@@ -150,6 +135,9 @@
     <t>Fudamental burning velocity</t>
   </si>
   <si>
+    <t>Gibbs formation energy</t>
+  </si>
+  <si>
     <t>TLV-TWA</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>RfD</t>
   </si>
   <si>
-    <t>Unit 1</t>
-  </si>
-  <si>
     <t>edp</t>
   </si>
   <si>
@@ -189,19 +174,66 @@
     <t>std</t>
   </si>
   <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Fuel+Oxi</t>
+  </si>
+  <si>
     <t>Exposure</t>
   </si>
   <si>
+    <t>CRW hazards</t>
+  </si>
+  <si>
     <t>No data</t>
   </si>
   <si>
+    <t xml:space="preserve">Su mixed,,
+,Irritation,0.0000,No data,,
+,Chronic Toxicity,-0.4900,Exposure,,
+,Water effects,0.0000,No data,,
+,Air effects,0.0000,No data,,
+,Solid Effects,0.0000,No data,,
+,Bioaccumalation,0.0000,No data,,
+,Degredation,0.0000,No data,,
+</t>
+  </si>
+  <si>
     <t>cdp</t>
   </si>
   <si>
     <t>Vessel</t>
   </si>
   <si>
-    <t>process</t>
+    <t>Standard Conditions</t>
+  </si>
+  <si>
+    <t>T Extreme Conditions</t>
+  </si>
+  <si>
+    <t>P Extreme Conditions</t>
+  </si>
+  <si>
+    <t>Base fail rate</t>
+  </si>
+  <si>
+    <t>Model Alterations fail rate</t>
+  </si>
+  <si>
+    <t>Final fail rate (process + model)</t>
+  </si>
+  <si>
+    <t>dfT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> process</t>
+  </si>
+  <si>
+    <t>dfP</t>
   </si>
   <si>
     <t>udp</t>
@@ -210,28 +242,293 @@
     <t>HotSpot</t>
   </si>
   <si>
+    <t>All Units</t>
+  </si>
+  <si>
+    <t>Chem weight: Average| Unit weight: Average</t>
+  </si>
+  <si>
+    <t>Chem weight: Average| Unit weight: Best Case</t>
+  </si>
+  <si>
+    <t>Chem weight: Average| Unit weight: Worst case</t>
+  </si>
+  <si>
+    <t>Chem weight: Best Case| Unit weight: Average</t>
+  </si>
+  <si>
+    <t>Chem weight: Best Case| Unit weight: Best Case</t>
+  </si>
+  <si>
+    <t>Chem weight: Best Case| Unit weight: Worst case</t>
+  </si>
+  <si>
+    <t>Chem weight: Worst case| Unit weight: Average</t>
+  </si>
+  <si>
+    <t>Chem weight: Worst case| Unit weight: Best Case</t>
+  </si>
+  <si>
+    <t>Chem weight: Worst case| Unit weight: Worst case</t>
+  </si>
+  <si>
+    <t>Design Factor</t>
+  </si>
+  <si>
     <t>idp</t>
+  </si>
+  <si>
+    <t>Design = (Sec effs + mix + Vessel+ UU)/IntVal</t>
+  </si>
+  <si>
+    <t>UUs</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Stream Name</t>
+  </si>
+  <si>
+    <t>Stream number</t>
+  </si>
+  <si>
+    <t>Unit from</t>
+  </si>
+  <si>
+    <t>Unit to</t>
+  </si>
+  <si>
+    <t>UU index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> worse</t>
+  </si>
+  <si>
+    <t>Std of other deviations</t>
+  </si>
+  <si>
+    <t>Guide word</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Excluded cause it is a product flow</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>UDPavg parameters and aggregation</t>
+  </si>
+  <si>
+    <t>UDPmaxParameter</t>
+  </si>
+  <si>
+    <t>UDPstd of parameters</t>
+  </si>
+  <si>
+    <t>Chem</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>ChemPara</t>
+  </si>
+  <si>
+    <t>Chemstd</t>
+  </si>
+  <si>
+    <t>SecEffsPara</t>
+  </si>
+  <si>
+    <t>SecEffsStd</t>
+  </si>
+  <si>
+    <t>MixPara</t>
+  </si>
+  <si>
+    <t>MixStd</t>
+  </si>
+  <si>
+    <t>VesselPara</t>
+  </si>
+  <si>
+    <t>VesselStd</t>
+  </si>
+  <si>
+    <t>HotSpotPara</t>
+  </si>
+  <si>
+    <t>HotSpotStd</t>
+  </si>
+  <si>
+    <t>APPENDIX</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <t>2015              6             23              1             40         54.638</t>
+  </si>
+  <si>
+    <t>Initial parameters</t>
+  </si>
+  <si>
+    <t>direc</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/</t>
+  </si>
+  <si>
+    <t>InfoWkstFile</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME safetyInfo.xlsx</t>
+  </si>
+  <si>
+    <t>UnitAlterations</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME unit alts.xlsx</t>
+  </si>
+  <si>
+    <t>StreamTable</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME ConStream.xlsx</t>
+  </si>
+  <si>
+    <t>AspenPredictReport</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME chem.txt</t>
+  </si>
+  <si>
+    <t>AspenBlocksName</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME blocks 1_1.txt</t>
+  </si>
+  <si>
+    <t>CRWreport</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME CRW.txt</t>
+  </si>
+  <si>
+    <t>outName</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME EHS3_1conOct.xlsx</t>
+  </si>
+  <si>
+    <t>weightFile</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME weights.xlsx</t>
+  </si>
+  <si>
+    <t>TESToutput</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/TESToutput/</t>
+  </si>
+  <si>
+    <t>ConceptBlock</t>
+  </si>
+  <si>
+    <t>G:/IEHS/case_studies/DME/DME ConBlock.xlsx</t>
+  </si>
+  <si>
+    <t>conceptDesFlag</t>
+  </si>
+  <si>
+    <t>xsFlag</t>
+  </si>
+  <si>
+    <t>plotFlag</t>
+  </si>
+  <si>
+    <t>altFlag</t>
+  </si>
+  <si>
+    <t>weightFlag</t>
+  </si>
+  <si>
+    <t>TESTonlyFlag</t>
+  </si>
+  <si>
+    <t>IEHSdir</t>
+  </si>
+  <si>
+    <t>G:\IEHS</t>
+  </si>
+  <si>
+    <t>AppendixName</t>
+  </si>
+  <si>
+    <t>G:\IEHS/templates/IO_notes.xlsx</t>
+  </si>
+  <si>
+    <t>MasterChemListName</t>
+  </si>
+  <si>
+    <t>G:\IEHS/global_vars/masterChemList.txt</t>
+  </si>
+  <si>
+    <t>ClassDesName</t>
+  </si>
+  <si>
+    <t>G:\IEHS/global_vars/classdesignations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <strike val="0"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <color rgb="FF000000"/>
-      <name val="Sans"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,84 +539,331 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="9" style="1" width="9.142308"/>
-    <col min="10" max="16384" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -345,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -374,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -382,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -391,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -400,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -420,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.674</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="H4">
         <v>0.65</v>
@@ -429,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -440,25 +984,25 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -469,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -484,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -516,7 +1060,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -542,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -559,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.485</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="H9">
-        <v>0.232</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -588,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I10">
-        <v>0.282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -611,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="H11">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -646,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -672,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -698,380 +1242,368 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="str">
-        <v>Descriptor vals</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
       <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
       <c r="I20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" t="str">
-        <v>Vaporizing liquid</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="str">
-        <v>Gibbs formation energy</v>
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="9" style="2" width="9.142308"/>
-    <col min="10" max="16384" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1095,9 +1627,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1124,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1664,7 @@
         <v>1.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3">
         <v>1.5</v>
@@ -1141,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1.5</v>
@@ -1150,7 +1682,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1170,16 +1702,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.174</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="H4">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1190,25 +1722,25 @@
         <v>1.5</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1.5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="H5">
         <v>1.5</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1219,25 +1751,25 @@
         <v>1.5</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1.5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.403</v>
       </c>
       <c r="H6">
         <v>1.5</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +1798,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1309,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H9">
-        <v>0.524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1338,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I10">
-        <v>0.282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1361,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="H11">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1448,14 +1980,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1482,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +2022,7 @@
         <v>0.5</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -1499,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0.5</v>
@@ -1508,7 +2040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +2066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1542,25 +2074,25 @@
         <v>0.5</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0.5</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="H22">
         <v>0.5</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1568,25 +2100,25 @@
         <v>0.5</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0.5</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="H23">
         <v>0.5</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +2144,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1658,13 +2190,13 @@
         <v>0.5</v>
       </c>
       <c r="H26">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1690,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1742,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1795,47 +2327,35 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="5" style="3" width="9.142308"/>
-    <col min="6" max="16384" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1850,12 +2370,12 @@
         <v>1.377</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1864,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1875,13 +2395,13 @@
         <v>0.04</v>
       </c>
       <c r="D4">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E4">
-        <v>0.708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1889,16 +2409,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.38</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D5">
         <v>-0.16</v>
       </c>
       <c r="E5">
-        <v>0.838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1915,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1923,16 +2443,16 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.177</v>
+        <v>-0.82</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1946,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1957,24 +2477,24 @@
         <v>-0.49</v>
       </c>
       <c r="E9">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1985,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2002,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -2016,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2030,42 +2550,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>0.252</v>
+        <v>0.182</v>
       </c>
       <c r="D16">
-        <v>0.252</v>
+        <v>0.182</v>
       </c>
       <c r="E16">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>0.453</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D17">
-        <v>0.453</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E17">
-        <v>0.453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="str">
-        <v>mix</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -2073,44 +2593,44 @@
       <c r="C22">
         <v>0.376</v>
       </c>
-      <c r="D22" t="str">
-        <v>MW</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="str">
-        <v>Fuel+Oxi</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25">
         <v>-0.16</v>
       </c>
-      <c r="D25" t="str">
-        <v>CRW hazards</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -2118,139 +2638,50 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>-0.49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="5" style="4" width="9.142308"/>
-    <col min="6" max="16384" style="4"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2265,21 +2696,21 @@
         <v>1.329</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.618</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D3">
         <v>-0.09</v>
       </c>
       <c r="E3">
-        <v>0.904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2293,10 +2724,10 @@
         <v>-0.36</v>
       </c>
       <c r="E4">
-        <v>0.637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2304,16 +2735,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.357</v>
+        <v>0.443</v>
       </c>
       <c r="D5">
         <v>-0.18</v>
       </c>
       <c r="E5">
-        <v>0.814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2321,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.594</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D6">
         <v>-0.11</v>
@@ -2330,7 +2761,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2338,16 +2769,16 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.129</v>
+        <v>-0.87</v>
       </c>
       <c r="D7">
+        <v>-1.04</v>
+      </c>
+      <c r="E7">
         <v>-0.04</v>
       </c>
-      <c r="E7">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -2361,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -2375,7 +2806,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2383,27 +2814,27 @@
         <v>-0.02</v>
       </c>
       <c r="D10">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E10">
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D11">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E11">
-        <v>0.703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2417,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -2431,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2445,42 +2876,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>0.206</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D16">
-        <v>0.206</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E16">
-        <v>0.206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>0.438</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D17">
-        <v>0.438</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="E17">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -2489,7 +2920,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -2497,15 +2928,15 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>-0.07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -2513,7 +2944,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -2521,7 +2952,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +2960,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -2545,23 +2976,23 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30">
-        <v>-0.07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31">
-        <v>-0.07</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
@@ -2569,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -2577,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -2585,117 +3016,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="C36" t="str">
-        <v>Standard Conditions</v>
-      </c>
-      <c r="D36" t="str">
-        <v>T Extreme Conditions</v>
-      </c>
-      <c r="E36" t="str">
-        <v>P Extreme Conditions</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" t="str">
-        <v>Base fail rate</v>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>62</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="B38" t="str">
-        <v>Model Alterations fail rate</v>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>63</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="B39" t="str">
-        <v>Final fail rate (process + model)</v>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>64</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="str">
-        <v>dfT</v>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>1.9201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="str">
-        <v>dfP</v>
+        <v>1.9200999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="5" style="5" width="9.142308"/>
-    <col min="6" max="16384" style="5"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2710,21 +3129,21 @@
         <v>1.329</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.618</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D3">
         <v>-0.09</v>
       </c>
       <c r="E3">
-        <v>0.904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2738,10 +3157,10 @@
         <v>-0.36</v>
       </c>
       <c r="E4">
-        <v>0.637</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2749,16 +3168,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.357</v>
+        <v>0.443</v>
       </c>
       <c r="D5">
         <v>-0.18</v>
       </c>
       <c r="E5">
-        <v>0.814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2766,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.594</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D6">
         <v>-0.11</v>
@@ -2775,7 +3194,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2783,16 +3202,16 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.129</v>
+        <v>-0.87</v>
       </c>
       <c r="D7">
+        <v>-1.04</v>
+      </c>
+      <c r="E7">
         <v>-0.04</v>
       </c>
-      <c r="E7">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -2806,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -2820,7 +3239,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2828,27 +3247,27 @@
         <v>-0.02</v>
       </c>
       <c r="D10">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E10">
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D11">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E11">
-        <v>0.703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -2876,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2890,42 +3309,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>0.206</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D16">
-        <v>0.206</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E16">
-        <v>0.206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>0.438</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D17">
-        <v>0.438</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="E17">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -2934,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -2942,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -2950,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -2958,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -2966,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>18</v>
       </c>
@@ -2974,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -2982,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -2990,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
@@ -2998,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
@@ -3014,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -3022,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -3031,72 +3450,56 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="11" style="6" width="9.142308"/>
-    <col min="12" max="12" style="6"/>
-    <col min="13" max="13" style="6" width="9.142308"/>
-    <col min="14" max="15" style="6"/>
-    <col min="16" max="16" style="6" width="9.142308"/>
-    <col min="17" max="16384" style="6"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="str">
-        <v>All Units</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Chem weight: Average| Unit weight: Average</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Chem weight: Average| Unit weight: Best Case</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Chem weight: Average| Unit weight: Worst case</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Chem weight: Best Case| Unit weight: Average</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Chem weight: Best Case| Unit weight: Best Case</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Chem weight: Best Case| Unit weight: Worst case</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Chem weight: Worst case| Unit weight: Average</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Chem weight: Worst case| Unit weight: Best Case</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Chem weight: Worst case| Unit weight: Worst case</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Design Factor</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -3129,21 +3532,21 @@
         <v>1.329</v>
       </c>
       <c r="M2">
-        <v>0.329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1.029</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="D3">
-        <v>1.029</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="E3">
-        <v>1.029</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="F3">
         <v>0.315</v>
@@ -3155,30 +3558,30 @@
         <v>0.315</v>
       </c>
       <c r="I3">
-        <v>1.315</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="J3">
-        <v>1.315</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="K3">
-        <v>1.315</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="M3">
-        <v>0.941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4">
         <v>-0.3</v>
@@ -3190,127 +3593,127 @@
         <v>-0.3</v>
       </c>
       <c r="I4">
-        <v>0.693</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="J4">
-        <v>0.693</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="K4">
-        <v>0.693</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="M4">
         <v>0.249</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.554</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D5">
-        <v>0.554</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="E5">
-        <v>0.554</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="F5">
-        <v>0.011</v>
+        <v>-0.16</v>
       </c>
       <c r="G5">
-        <v>0.011</v>
+        <v>-0.16</v>
       </c>
       <c r="H5">
-        <v>0.011</v>
+        <v>-0.16</v>
       </c>
       <c r="I5">
-        <v>1.011</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="J5">
-        <v>1.011</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="K5">
-        <v>1.011</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="M5">
-        <v>0.482</v>
-      </c>
-      <c r="P5" t="str">
-        <v>Design = (Sec effs + mix + Vessel+ UU)/IntVal</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1.005</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="D6">
-        <v>1.005</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E6">
-        <v>1.005</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="F6">
-        <v>0.291</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G6">
-        <v>0.291</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>0.291</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>1.291</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="J6">
-        <v>1.291</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="K6">
-        <v>1.291</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="M6">
-        <v>0.649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.139</v>
+        <v>0.129</v>
       </c>
       <c r="D7">
-        <v>0.139</v>
+        <v>0.129</v>
       </c>
       <c r="E7">
-        <v>0.139</v>
+        <v>0.129</v>
       </c>
       <c r="F7">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="G7">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="H7">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="I7">
-        <v>0.962</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J7">
-        <v>0.962</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="K7">
-        <v>0.962</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="M7">
-        <v>0.506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3345,7 +3748,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -3377,10 +3780,10 @@
         <v>0.124</v>
       </c>
       <c r="M9">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -3415,42 +3818,42 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D11">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E11">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F11">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G11">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H11">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I11">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="J11">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="K11">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="M11">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -3485,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -3517,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -3552,84 +3955,84 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="G16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="J16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="K16">
-        <v>0.304</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="M16">
-        <v>0.451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="E17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J17">
-        <v>0.504</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="K17">
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="str">
-        <v>UUs</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -3638,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -3646,39 +4049,39 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25">
-        <v>0.197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -3686,23 +4089,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="C29">
-        <v>0.176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
@@ -3710,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
@@ -3718,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -3726,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -3735,63 +4138,51 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="25" style="7" width="9.142308"/>
-    <col min="26" max="16384" style="7"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" t="str">
-        <v>Rank</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Stream Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Stream number</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Unit from</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Unit to</v>
-      </c>
-      <c r="F1" t="str">
-        <v>UU index</v>
-      </c>
-      <c r="G1" t="str">
-        <v>worse</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Std of other deviations</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Guide word</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Variable</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Deviation</v>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
@@ -3833,33 +4224,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>two</v>
+      <c r="B2" t="s">
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <v>Feed</v>
+      <c r="D2" t="s">
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0.215</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G2">
-        <v>0.312</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Less</v>
-      </c>
-      <c r="I2" t="str">
-        <v>F</v>
+        <v>0.39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
       </c>
       <c r="J2">
         <v>-0.05</v>
@@ -3871,25 +4262,25 @@
         <v>0.41</v>
       </c>
       <c r="N2">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="O2">
-        <v>0.197</v>
+        <v>2.4E-2</v>
       </c>
       <c r="P2">
-        <v>0.41</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="T2">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -3904,12 +4295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>five</v>
+      <c r="B3" t="s">
+        <v>99</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3917,429 +4308,402 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="str">
-        <v>Product</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Excluded cause it is a product flow</v>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="2" style="8" width="9.142308"/>
-    <col min="3" max="16384" style="8"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="str">
-        <v>Number</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="str">
-        <v>Name</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="str">
-        <v>Type</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="str">
-        <v>UDPavg parameters and aggregation</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>0.206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="str">
-        <v>UDPmaxParameter</v>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="str">
-        <v>UDPstd of parameters</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="str">
-        <v>Chem</v>
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>0.391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="str">
-        <v>Mix</v>
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="str">
-        <v>ChemPara</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="str">
-        <v>Chemstd</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
       </c>
       <c r="B15">
-        <v>0.355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="str">
-        <v>SecEffsPara</v>
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="str">
-        <v>SecEffsStd</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="str">
-        <v>MixPara</v>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="str">
-        <v>MixStd</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
       </c>
       <c r="B19">
-        <v>0.197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="str">
-        <v>VesselPara</v>
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="str">
-        <v>VesselStd</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
       </c>
       <c r="B21">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="str">
-        <v>HotSpotPara</v>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="str">
-        <v>HotSpotStd</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="3" style="9" width="9.142308"/>
-    <col min="4" max="16384" style="9"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="str">
-        <v>APPENDIX</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="str">
-        <v>Version</v>
-      </c>
-      <c r="B3" t="str">
-        <v>0.0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="str">
-        <v>Run Time</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2015             6            18            21            28      14.75487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="str">
-        <v>Initial parameters</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="str">
-        <v>direc</v>
-      </c>
-      <c r="C8" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="str">
-        <v>InfoWkstFile</v>
-      </c>
-      <c r="C9" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME safetyInfo.xlsx</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="str">
-        <v>UnitAlterations</v>
-      </c>
-      <c r="C10" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME unit alts.xlsx</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="str">
-        <v>StreamTable</v>
-      </c>
-      <c r="C11" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME ConStream.xlsx</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="str">
-        <v>AspenPredictReport</v>
-      </c>
-      <c r="C12" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME chem.txt</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="str">
-        <v>AspenBlocksName</v>
-      </c>
-      <c r="C13" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME blocks 1_1.txt</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="str">
-        <v>CRWreport</v>
-      </c>
-      <c r="C14" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME CRW.txt</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="str">
-        <v>outName</v>
-      </c>
-      <c r="C15" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME EHS3_1conOct.xlsx</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="str">
-        <v>weightFile</v>
-      </c>
-      <c r="C16" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME weights.xlsx</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="str">
-        <v>TESToutput</v>
-      </c>
-      <c r="C17" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/TESToutput/</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="str">
-        <v>ConceptBlock</v>
-      </c>
-      <c r="C18" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/case_studies/DME/DME ConBlock.xlsx</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="str">
-        <v>conceptDesFlag</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="str">
-        <v>xsFlag</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>149</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="str">
-        <v>plotFlag</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="str">
-        <v>altFlag</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>151</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="str">
-        <v>weightFlag</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>152</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="str">
-        <v>TESTonlyFlag</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="str">
-        <v>IEHSdir</v>
-      </c>
-      <c r="C25" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="str">
-        <v>AppendixName</v>
-      </c>
-      <c r="C26" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/templates/IO_notes.xlsx</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="str">
-        <v>MasterChemListName</v>
-      </c>
-      <c r="C27" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/global_vars/masterChemList.txt</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="str">
-        <v>ClassDesName</v>
-      </c>
-      <c r="C28" t="str">
-        <v>/home/computer/Documents/IEHS/iehs_index/global_vars/classdesignations.xlsx</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
-  <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>